--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111454321</v>
+        <v>111454300</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -833,14 +833,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>492408.8681431987</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R3" t="n">
-        <v>6948272.081593725</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454959</v>
+        <v>111454321</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -944,20 +944,23 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492425.096130528</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R4" t="n">
-        <v>6948324.435442663</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1005,18 +1008,19 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1136,7 +1140,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111454300</v>
+        <v>111454959</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1170,23 +1174,20 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492448.9318965223</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R6" t="n">
-        <v>6948282.559996245</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1234,19 +1235,18 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111454300</v>
+        <v>111454321</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -833,14 +833,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>492448.9318965223</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R3" t="n">
-        <v>6948282.559996245</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454321</v>
+        <v>111454959</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -944,23 +944,20 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492408.8681431987</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R4" t="n">
-        <v>6948272.081593725</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1008,19 +1005,18 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1140,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111454959</v>
+        <v>111454300</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1174,20 +1170,23 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492425.096130528</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R6" t="n">
-        <v>6948324.435442663</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1235,18 +1234,19 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111454321</v>
+        <v>111456767</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,45 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>492408.8681431987</v>
+        <v>492438.5728583461</v>
       </c>
       <c r="R3" t="n">
-        <v>6948272.081593725</v>
+        <v>6948381.390433793</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -891,19 +888,18 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -1023,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111456767</v>
+        <v>111454321</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,42 +1031,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492438.5728583461</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R5" t="n">
-        <v>6948381.390433793</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1118,18 +1117,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454959</v>
+        <v>111454300</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -940,20 +940,23 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492425.096130528</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R4" t="n">
-        <v>6948324.435442663</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1001,25 +1004,26 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111454321</v>
+        <v>111454959</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1053,23 +1057,20 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492408.8681431987</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R5" t="n">
-        <v>6948272.081593725</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1117,26 +1118,25 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111454300</v>
+        <v>111454321</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1176,14 +1176,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492448.9318965223</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R6" t="n">
-        <v>6948282.559996245</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454300</v>
+        <v>111454959</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -940,23 +940,20 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492448.9318965223</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R4" t="n">
-        <v>6948282.559996245</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,26 +1001,25 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111454959</v>
+        <v>111454300</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1057,20 +1053,23 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492425.096130528</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R5" t="n">
-        <v>6948324.435442663</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1118,18 +1117,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454959</v>
+        <v>111454300</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -940,20 +940,23 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492425.096130528</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R4" t="n">
-        <v>6948324.435442663</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1001,25 +1004,26 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111454300</v>
+        <v>111454321</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1059,14 +1063,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492448.9318965223</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R5" t="n">
-        <v>6948282.559996245</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1140,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111454321</v>
+        <v>111454959</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1170,23 +1174,20 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492408.8681431987</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R6" t="n">
-        <v>6948272.081593725</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1234,19 +1235,18 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 60849-2022.xlsx
+++ b/artfynd/A 60849-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111456767</v>
+        <v>111454321</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +805,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>492438.5728583461</v>
+        <v>492408.8681431987</v>
       </c>
       <c r="R3" t="n">
-        <v>6948381.390433793</v>
+        <v>6948272.081593725</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,28 +891,29 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111454300</v>
+        <v>111456767</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,45 +922,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>492448.9318965223</v>
+        <v>492438.5728583461</v>
       </c>
       <c r="R4" t="n">
-        <v>6948282.559996245</v>
+        <v>6948381.390433793</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,26 +1005,25 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111454321</v>
+        <v>111454959</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1057,23 +1057,20 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Albinvägen3, Svartnäset, Hackås, Jmt</t>
+          <t>Siljebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>492408.8681431987</v>
+        <v>492425.096130528</v>
       </c>
       <c r="R5" t="n">
-        <v>6948272.081593725</v>
+        <v>6948324.435442663</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,26 +1118,25 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jan Magnesved</t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
+          <t>Monica Magnesved</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111454959</v>
+        <v>111454300</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1174,20 +1170,23 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Siljebodarna, Jmt</t>
+          <t>Albinvägen2, Svartnäset, Hackås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>492425.096130528</v>
+        <v>492448.9318965223</v>
       </c>
       <c r="R6" t="n">
-        <v>6948324.435442663</v>
+        <v>6948282.559996245</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1235,18 +1234,19 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t>Jan Magnesved</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Monica Magnesved</t>
+          <t xml:space="preserve">Jan Magnesved, Anders Wännström </t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
